--- a/SP500.xlsx
+++ b/SP500.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utsacloud-my.sharepoint.com/personal/zachary_reimers2_my_utsa_edu/Documents/MSDA/2024Fall/DA6813/DA6813/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{33B262B8-BBFC-1746-B16D-0852452CC087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CECE5CA8-263A-CB44-AEA3-F79EA71A6ED7}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{33B262B8-BBFC-1746-B16D-0852452CC087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDAFDD49-EC91-1B44-B2AB-15B8D78C9293}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="1060" windowWidth="25800" windowHeight="17440" xr2:uid="{55D449CC-6826-6A43-9D73-020C0DF2ABFB}"/>
   </bookViews>
@@ -451,11 +451,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1E95BB-2CBA-104F-9BA5-6C44E8976CEA}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1022,13 +1020,13 @@
         <v>40553</v>
       </c>
       <c r="B25" s="2">
-        <v>1285.78</v>
+        <v>1270.8399999999999</v>
       </c>
       <c r="C25" s="2">
         <v>1293.24</v>
       </c>
       <c r="D25" s="2">
-        <v>1280.47</v>
+        <v>1262.18</v>
       </c>
       <c r="E25" s="2">
         <v>1293.24</v>
@@ -1037,7 +1035,30 @@
         <v>1293.24</v>
       </c>
       <c r="G25" s="3">
-        <v>8972430000</v>
+        <v>21286570000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>40546</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1276.29</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1278.17</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1261.7</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1271.5</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1271.5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>9807210000</v>
       </c>
     </row>
   </sheetData>
